--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,116 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +811,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +855,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +877,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F12" s="3">
         <v>18700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>19200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>16400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,28 +961,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -966,46 +1005,58 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1068,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>21000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-23900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,84 +1174,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-30700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-14600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1223,46 +1302,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-19400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1390,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1434,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-19400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1698,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1830,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,32 +1963,34 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F41" s="3">
         <v>206300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>226100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>116500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>103200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>127600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +2003,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,32 +2047,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2091,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,32 +2135,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,32 +2179,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>166800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>193700</v>
+      </c>
+      <c r="F46" s="3">
         <v>219500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>237100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>137000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>115700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>146000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2223,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,32 +2267,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F48" s="3">
         <v>39000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>33000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2311,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2105,10 +2326,10 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>1500</v>
@@ -2116,11 +2337,11 @@
       <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2355,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,32 +2443,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,32 +2531,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>214200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>235200</v>
+      </c>
+      <c r="F54" s="3">
         <v>260300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>271900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>166800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>138600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>160600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,32 +2615,34 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2655,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,26 +2672,26 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>52400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2432,32 +2699,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F59" s="3">
         <v>19300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,32 +2743,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F60" s="3">
         <v>23700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>71400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2787,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,32 +2831,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F62" s="3">
         <v>80800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>82100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>84600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>84600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>85900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2875,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,32 +3007,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>96900</v>
+      </c>
+      <c r="F66" s="3">
         <v>104500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>97900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>156000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>98600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>107100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,32 +3245,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-177100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-156200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-135400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-116000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-85200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-69700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,32 +3421,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>138300</v>
+      </c>
+      <c r="F76" s="3">
         <v>155800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>174000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>40000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>53600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3509,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3624,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3884,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-14500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3950,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +4078,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4144,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,37 +4316,43 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>134300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>38300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>88000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4360,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4404,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-19800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>109600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-24400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>77600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-15100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +730,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,41 +892,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,19 +984,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -987,11 +1007,11 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1011,40 +1031,43 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>400</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E17" s="3">
         <v>34500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1141,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-21900</v>
       </c>
       <c r="F18" s="3">
         <v>-21900</v>
       </c>
       <c r="G18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,40 +1209,41 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>300</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,41 +1254,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,13 +1301,16 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1282,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,40 +1771,43 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-700</v>
       </c>
       <c r="K32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-300</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2051,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E41" s="3">
         <v>154200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>180900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>206300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>103200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>127600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,35 +2143,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2237,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2284,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E46" s="3">
         <v>166800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>193700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>219500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>237100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>115700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>146000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,35 +2378,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E48" s="3">
         <v>45400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>39600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2332,7 +2443,7 @@
         <v>1400</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1500</v>
@@ -2343,8 +2454,8 @@
       <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>1500</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2566,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2660,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E54" s="3">
         <v>214200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>235200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>160600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2747,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,12 +2812,12 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>52400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2827,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2705,35 +2839,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>22000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +2886,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,35 +2980,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E62" s="3">
         <v>75400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>84600</v>
       </c>
       <c r="I62" s="3">
         <v>84600</v>
       </c>
       <c r="J62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K62" s="3">
         <v>85900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3168,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E66" s="3">
         <v>99200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>98600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3422,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-236600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-203900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-177100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-156200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-135400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3610,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E76" s="3">
         <v>115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>138300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>174000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3635,31 +3834,31 @@
         <v>2200</v>
       </c>
       <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>500</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,41 +4172,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4311,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4331,31 +4577,31 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>134300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>38300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>88000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>109600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,44 +734,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +906,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,11 +1018,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1010,11 +1030,11 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,34 +1066,34 @@
         <v>1900</v>
       </c>
       <c r="E15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>400</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E17" s="3">
         <v>33900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-21900</v>
       </c>
       <c r="G18" s="3">
         <v>-21900</v>
       </c>
       <c r="H18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,43 +1243,44 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>300</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,16 +1341,19 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1325,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,43 +1841,46 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
       </c>
       <c r="L32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>-300</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E41" s="3">
         <v>126900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>206300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>226100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>103200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>127600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,38 +2236,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E46" s="3">
         <v>137400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>166800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>193700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>219500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>237100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>137000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>146000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E48" s="3">
         <v>44000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2446,7 +2557,7 @@
         <v>1400</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1500</v>
@@ -2457,8 +2568,8 @@
       <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>1500</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E54" s="3">
         <v>184200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>214200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>235200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>260300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>166800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2815,12 +2949,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>52400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2830,8 +2964,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E60" s="3">
         <v>34300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E62" s="3">
         <v>64300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>84600</v>
       </c>
       <c r="J62" s="3">
         <v>84600</v>
       </c>
       <c r="K62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="L62" s="3">
         <v>85900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E66" s="3">
         <v>98600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>99200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>96900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>98600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>107100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-262600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-236600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-203900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-177100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-156200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-135400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E76" s="3">
         <v>85600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>174000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,31 +4036,31 @@
         <v>2200</v>
       </c>
       <c r="F83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>500</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,44 +4393,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +4811,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>134300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>88000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>109600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,47 +737,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,8 +790,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,11 +1040,11 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1033,11 +1052,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1057,46 +1076,49 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="3">
         <v>1900</v>
       </c>
       <c r="F15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>400</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E17" s="3">
         <v>33400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,47 +1200,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-21900</v>
       </c>
       <c r="H18" s="3">
         <v>-21900</v>
       </c>
       <c r="I18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,46 +1276,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
       </c>
       <c r="L20" s="3">
         <v>700</v>
       </c>
       <c r="M20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>300</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1294,47 +1327,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,19 +1380,22 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1368,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1394,47 +1433,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,46 +1910,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
       </c>
       <c r="L32" s="3">
         <v>-700</v>
       </c>
       <c r="M32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>-300</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1894,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E41" s="3">
         <v>104100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>154200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>206300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>226100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>116500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>103200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>127600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,41 +2328,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E46" s="3">
         <v>122600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>137400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>166800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>219500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>237100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>137000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>146000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2593,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E48" s="3">
         <v>43200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2560,7 +2670,7 @@
         <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>1500</v>
@@ -2571,8 +2681,8 @@
       <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>1500</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2805,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E54" s="3">
         <v>168700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>184200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>260300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3008,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2952,12 +3085,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>52400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3100,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2979,41 +3112,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="3">
         <v>41000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3165,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E60" s="3">
         <v>42000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3138,32 +3283,32 @@
         <v>62900</v>
       </c>
       <c r="E62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F62" s="3">
         <v>64300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>84600</v>
       </c>
       <c r="K62" s="3">
         <v>84600</v>
       </c>
       <c r="L62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="M62" s="3">
         <v>85900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E66" s="3">
         <v>104900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>98600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>107100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3769,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-262600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-236600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-203900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-177100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-156200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-135400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E76" s="3">
         <v>63800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>155800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>174000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4039,31 +4237,31 @@
         <v>2200</v>
       </c>
       <c r="G83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>500</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4537,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,47 +4613,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4770,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,46 +5056,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>134300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>38300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>88000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,47 +5162,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>109600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,8 +797,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +933,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E12" s="3">
         <v>21300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,40 +1043,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,40 +1111,40 @@
         <v>1800</v>
       </c>
       <c r="E15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="3">
         <v>1900</v>
       </c>
       <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>400</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E17" s="3">
         <v>32300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-21900</v>
       </c>
       <c r="I18" s="3">
         <v>-21900</v>
       </c>
       <c r="J18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,40 +1320,40 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
       </c>
       <c r="M20" s="3">
         <v>700</v>
       </c>
       <c r="N20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>300</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,50 +1364,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,22 +1420,25 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1410,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,40 +1992,40 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-700</v>
       </c>
       <c r="M32" s="3">
         <v>-700</v>
       </c>
       <c r="N32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>-300</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E41" s="3">
         <v>89800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>154200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>206300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>103200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>127600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,44 +2421,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E46" s="3">
         <v>105600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>122600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>137400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>166800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>193700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>219500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>237100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>146000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,44 +2701,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E48" s="3">
         <v>41500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2673,7 +2784,7 @@
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K49" s="3">
         <v>1500</v>
@@ -2684,8 +2795,8 @@
       <c r="M49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>1500</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E54" s="3">
         <v>150200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>184200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>214200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>260300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>160600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,38 +3193,41 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>52400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,8 +3237,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3115,44 +3249,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E60" s="3">
         <v>42800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,44 +3417,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62900</v>
+        <v>139700</v>
       </c>
       <c r="E62" s="3">
         <v>62900</v>
       </c>
       <c r="F62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="G62" s="3">
         <v>64300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>84600</v>
       </c>
       <c r="L62" s="3">
         <v>84600</v>
       </c>
       <c r="M62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="N62" s="3">
         <v>85900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E66" s="3">
         <v>105700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>104900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>98600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>107100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-304800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-286100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-262600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-236600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-177100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-156200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-135400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E76" s="3">
         <v>44400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>155800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>174000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,31 +4439,31 @@
         <v>2200</v>
       </c>
       <c r="H83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>500</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4623,41 +4844,41 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,8 +5000,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4782,41 +5012,41 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,49 +5302,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>134300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>38300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>88000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>109600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +745,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E8" s="3">
         <v>16300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,8 +804,11 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E12" s="3">
         <v>23800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,17 +1092,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1102,52 +1122,55 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
       </c>
       <c r="H15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>400</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E17" s="3">
         <v>35100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,53 +1260,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-21900</v>
       </c>
       <c r="J18" s="3">
         <v>-21900</v>
       </c>
       <c r="K18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,40 +1357,40 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>700</v>
       </c>
       <c r="N20" s="3">
         <v>700</v>
       </c>
       <c r="O20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>300</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1367,53 +1401,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,25 +1460,28 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1453,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,40 +2065,40 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-700</v>
       </c>
       <c r="N32" s="3">
         <v>-700</v>
       </c>
       <c r="O32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-300</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E41" s="3">
         <v>193500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>154200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>180900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>206300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>103200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>127600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,47 +2514,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>19300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E46" s="3">
         <v>219100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>105600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>137400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>166800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>193700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>219500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>237100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>146000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E48" s="3">
         <v>40000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>39000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,13 +2868,16 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
@@ -2787,7 +2898,7 @@
         <v>1400</v>
       </c>
       <c r="K49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L49" s="3">
         <v>1500</v>
@@ -2798,8 +2909,8 @@
       <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>1500</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E54" s="3">
         <v>262300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>168700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>184200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>214200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>260300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,41 +3327,44 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>52400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,8 +3374,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3252,47 +3386,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E59" s="3">
         <v>63400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E60" s="3">
         <v>63800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,47 +3563,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E62" s="3">
         <v>139700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>62900</v>
       </c>
       <c r="F62" s="3">
         <v>62900</v>
       </c>
       <c r="G62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="H62" s="3">
         <v>64300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>84600</v>
       </c>
       <c r="M62" s="3">
         <v>84600</v>
       </c>
       <c r="N62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="O62" s="3">
         <v>85900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E66" s="3">
         <v>203500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>98600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>107100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-283100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-304800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-286100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-262600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-236600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-203900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-177100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-135400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E76" s="3">
         <v>58800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>138300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>155800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>174000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,13 +4619,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
         <v>2200</v>
@@ -4442,31 +4641,31 @@
         <v>2200</v>
       </c>
       <c r="I83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>500</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E89" s="3">
         <v>68100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,53 +5055,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
         <v>-1100</v>
       </c>
       <c r="F91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,53 +5230,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="E94" s="3">
         <v>-1100</v>
       </c>
       <c r="F94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,52 +5548,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>36700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>134300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>88000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,53 +5666,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E102" s="3">
         <v>103700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>109600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +749,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E8" s="3">
         <v>68800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +961,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>35200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1095,17 +1115,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1125,55 +1145,58 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1800</v>
       </c>
       <c r="F15" s="3">
         <v>1800</v>
       </c>
       <c r="G15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H15" s="3">
         <v>1900</v>
       </c>
       <c r="I15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>400</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E17" s="3">
         <v>47200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1290,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>21600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-21900</v>
       </c>
       <c r="K18" s="3">
         <v>-21900</v>
       </c>
       <c r="L18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="M18" s="3">
         <v>-23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,13 +1378,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1360,40 +1394,40 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>700</v>
       </c>
       <c r="O20" s="3">
         <v>700</v>
       </c>
       <c r="P20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>300</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1404,56 +1438,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E21" s="3">
         <v>24000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,28 +1500,31 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1496,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E27" s="3">
         <v>21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,13 +2120,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2068,40 +2138,40 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-700</v>
       </c>
       <c r="O32" s="3">
         <v>-700</v>
       </c>
       <c r="P32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-300</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E33" s="3">
         <v>21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E35" s="3">
         <v>21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E41" s="3">
         <v>173900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>193500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>154200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>180900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>226100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>103200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>127600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2526,41 +2619,41 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E46" s="3">
         <v>188300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>219100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>105600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>122600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>166800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>193700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>219500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>237100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>137000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>146000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,31 +2855,34 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E48" s="3">
         <v>38600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>39600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,16 +2979,19 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
@@ -2901,7 +3012,7 @@
         <v>1400</v>
       </c>
       <c r="L49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M49" s="3">
         <v>1500</v>
@@ -2912,8 +3023,8 @@
       <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>1500</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E54" s="3">
         <v>230100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>262300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>150200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>168700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>184200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>235200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>260300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,8 +3401,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3280,41 +3411,41 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,17 +3461,20 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,18 +3490,18 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>52400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3511,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E59" s="3">
         <v>33300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E60" s="3">
         <v>36300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,50 +3709,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E62" s="3">
         <v>93300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>139700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>62900</v>
       </c>
       <c r="G62" s="3">
         <v>62900</v>
       </c>
       <c r="H62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="I62" s="3">
         <v>64300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>84600</v>
       </c>
       <c r="N62" s="3">
         <v>84600</v>
       </c>
       <c r="O62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="P62" s="3">
         <v>85900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E66" s="3">
         <v>129600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>203500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>98600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>107100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-294400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-283100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-304800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-286100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-262600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-236600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-203900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-177100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-135400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E76" s="3">
         <v>100600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>138300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>155800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>174000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E81" s="3">
         <v>21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,16 +4818,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2200</v>
       </c>
       <c r="F83" s="3">
         <v>2200</v>
@@ -4644,31 +4843,31 @@
         <v>2200</v>
       </c>
       <c r="J83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>500</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,56 +5276,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1100</v>
       </c>
       <c r="F91" s="3">
         <v>-1100</v>
       </c>
       <c r="G91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5460,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1100</v>
       </c>
       <c r="F94" s="3">
         <v>-1100</v>
       </c>
       <c r="G94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,55 +5794,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>13500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>36700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>134300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>88000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>103700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>109600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>77600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F8" s="3">
         <v>24000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>68800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +889,14 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +957,14 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +987,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>35200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>23800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>23300</v>
       </c>
       <c r="J12" s="3">
         <v>23000</v>
       </c>
       <c r="K12" s="3">
+        <v>23300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M12" s="3">
         <v>18400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>19200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>16400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,31 +1119,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-6000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1118,20 +1157,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1148,70 +1187,82 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1282,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F17" s="3">
         <v>35600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>47200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>35100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>32300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>33400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>33900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>29300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>25000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-18800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-23500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-32800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-21900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-21900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-16100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,143 +1444,157 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-12100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>24000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-21300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-23800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-24700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-19300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-18300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-30700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-14600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-8600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1523,14 +1602,14 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1539,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1565,70 +1644,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-23500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-26000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-32700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-31800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,8 +1780,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1848,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-18700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-23500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-32700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-31800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-18700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-23500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-32700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-31800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2052,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2120,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2188,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2256,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>12100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-18700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-23500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-26000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-32700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-31800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2460,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-18700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-23500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-26000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-32700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-31800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2631,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,56 +2657,58 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>143700</v>
+      </c>
+      <c r="F41" s="3">
         <v>160500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>173900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>193500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>89800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>104100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>126900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>154200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>180900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>206300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>226100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>116500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>103200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>127600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2721,14 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,8 +2789,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,44 +2807,44 @@
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>10100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2857,14 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,56 +2925,62 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F45" s="3">
         <v>22100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,56 +2993,62 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>161800</v>
+      </c>
+      <c r="F46" s="3">
         <v>183000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>188300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>219100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>105600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>122600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>137400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>166800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>193700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>219500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>237100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>137000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>115700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>146000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,20 +3061,26 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,11 +3093,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2920,56 +3129,62 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F48" s="3">
         <v>37000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>38600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>40000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>41500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>43200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>45400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>39600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>39000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>27900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,22 +3197,28 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
@@ -3015,10 +3236,10 @@
         <v>1400</v>
       </c>
       <c r="M49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="N49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O49" s="3">
         <v>1500</v>
@@ -3026,11 +3247,11 @@
       <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1500</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3044,8 +3265,14 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3333,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,56 +3401,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3469,14 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,56 +3537,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>211500</v>
+      </c>
+      <c r="F54" s="3">
         <v>227200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>230100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>262300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>150200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>168700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>184200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>214200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>235200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>260300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>271900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>166800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>138600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>160600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3605,14 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3635,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,56 +3661,58 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,23 +3725,29 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,32 +3760,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>52400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3526,56 +3793,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F59" s="3">
         <v>33500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>63400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>41000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>32700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>22000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>17200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,56 +3861,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F60" s="3">
         <v>36500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>36300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>63800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>42800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>42000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>34300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>23800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>71400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,16 +3929,22 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3712,56 +3997,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>81900</v>
+      </c>
+      <c r="F62" s="3">
         <v>89300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>93300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>139700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>62900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>62900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>64300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>75400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>70000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>80800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>82100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>84600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>84600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>85900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +4065,14 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4133,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4201,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,56 +4269,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F66" s="3">
         <v>125800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>129600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>203500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>105700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>104900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>98600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>99200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>96900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>104500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>97900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>156000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>98600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>107100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4337,14 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4367,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4431,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4499,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4567,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,56 +4635,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-344800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-316700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-294400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-283100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-304800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-286100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-262600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-236600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-203900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-177100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-156200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-135400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-116000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-85200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-69700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4703,14 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4771,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4839,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,56 +4907,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>91200</v>
+      </c>
+      <c r="F76" s="3">
         <v>101400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>58800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>44400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>63800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>85600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>115000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>138300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>155800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>174000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>40000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>53600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4975,14 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5043,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-18700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-23500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-26000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-32700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-31800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,22 +5214,24 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2200</v>
       </c>
       <c r="H83" s="3">
         <v>2200</v>
@@ -4846,43 +5243,49 @@
         <v>2200</v>
       </c>
       <c r="K83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5346,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5414,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5482,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5550,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5618,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-31300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>68100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-25800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-25900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-14000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-19900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-12900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-14500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5716,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5848,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5916,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6014,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6078,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6146,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6214,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,61 +6282,67 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F100" s="3">
         <v>11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>13500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>36700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>134300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>38300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>21300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>88000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -5859,8 +6350,14 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6418,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>103700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-22700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-27300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-26700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-19800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>109600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-24400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>77600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-15100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,92 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -759,65 +760,68 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>68800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,8 +831,11 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,65 +1002,66 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E12" s="3">
         <v>18300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,20 +1142,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-6000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1171,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1163,17 +1183,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1193,64 +1213,67 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K15" s="3">
         <v>1900</v>
       </c>
       <c r="L15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>400</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,65 +1310,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E17" s="3">
         <v>30700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,65 +1379,68 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-21900</v>
       </c>
       <c r="N18" s="3">
         <v>-21900</v>
       </c>
       <c r="O18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,22 +1479,23 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1470,40 +1504,40 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>700</v>
       </c>
       <c r="R20" s="3">
         <v>700</v>
       </c>
       <c r="S20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>300</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1514,65 +1548,68 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-14600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,37 +1619,40 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1624,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1650,65 +1690,68 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1761,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,65 +1903,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,65 +1974,68 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,22 +2329,25 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2286,40 +2356,40 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-700</v>
       </c>
       <c r="R32" s="3">
         <v>-700</v>
       </c>
       <c r="S32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>-300</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2330,65 +2400,68 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-32700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,65 +2542,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-32700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,70 +2613,73 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2689,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,59 +2745,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E41" s="3">
         <v>116200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>154200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>180900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>206300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>103200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>127600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,8 +2814,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,13 +2885,16 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
@@ -2813,41 +2906,41 @@
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>19300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,59 +3027,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,59 +3098,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>247700</v>
+      </c>
+      <c r="E46" s="3">
         <v>134100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>183000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>188300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>219100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>105600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>122600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>166800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>193700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>219500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>237100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>146000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,23 +3169,26 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E47" s="3">
         <v>12900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3204,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3135,59 +3240,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
         <v>27800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>38600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3215,13 +3326,13 @@
         <v>2000</v>
       </c>
       <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
@@ -3242,7 +3353,7 @@
         <v>1400</v>
       </c>
       <c r="O49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P49" s="3">
         <v>1500</v>
@@ -3253,8 +3364,8 @@
       <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>1500</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,59 +3524,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,59 +3666,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E54" s="3">
         <v>181400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>211500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>227200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>230100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>262300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>184200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>260300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>166800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>160600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,59 +3793,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,15 +3876,15 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3766,18 +3900,18 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>52400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3787,8 +3921,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3799,59 +3933,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E59" s="3">
         <v>28400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,59 +4004,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E60" s="3">
         <v>29100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,19 +4075,22 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>22100</v>
       </c>
       <c r="E61" s="3">
         <v>2500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4003,59 +4146,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E62" s="3">
         <v>80100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>93300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>139700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>62900</v>
       </c>
       <c r="J62" s="3">
         <v>62900</v>
       </c>
       <c r="K62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="L62" s="3">
         <v>64300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>84600</v>
       </c>
       <c r="Q62" s="3">
         <v>84600</v>
       </c>
       <c r="R62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="S62" s="3">
         <v>85900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,59 +4430,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E66" s="3">
         <v>111700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>129600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>203500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>98600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>107100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,59 +4812,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-375900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-344800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-316700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-294400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-283100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-304800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-286100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-262600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-236600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-203900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-177100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-156200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-135400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-85200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,59 +5096,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E76" s="3">
         <v>69700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>138300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>155800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>174000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,70 +5238,73 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5122,65 +5314,68 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-32700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5190,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,25 +5414,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2200</v>
       </c>
       <c r="I83" s="3">
         <v>2200</v>
@@ -5249,31 +5448,31 @@
         <v>2200</v>
       </c>
       <c r="M83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>500</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,65 +5838,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>68100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-14500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5727,56 +5948,56 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1100</v>
       </c>
       <c r="I91" s="3">
         <v>-1100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,8 +6149,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5931,56 +6161,56 @@
         <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="F94" s="3">
         <v>-1500</v>
       </c>
       <c r="G94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1100</v>
       </c>
       <c r="I94" s="3">
         <v>-1100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5990,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,64 +6531,67 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>134300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>38300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>88000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6356,8 +6602,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,65 +6673,68 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>103700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>109600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>77600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6490,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,68 +764,71 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>68800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,8 +838,11 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,8 +912,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,68 +1016,69 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E12" s="3">
         <v>21300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7800</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,12 +1176,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-6000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1194,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1186,17 +1206,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1216,67 +1236,70 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1800</v>
       </c>
       <c r="J15" s="3">
         <v>1800</v>
       </c>
       <c r="K15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L15" s="3">
         <v>1900</v>
       </c>
       <c r="M15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>400</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,68 +1337,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E17" s="3">
         <v>33400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10800</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,68 +1409,71 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-21900</v>
       </c>
       <c r="O18" s="3">
         <v>-21900</v>
       </c>
       <c r="P18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,8 +1483,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,25 +1513,26 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1507,40 +1541,40 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>700</v>
       </c>
       <c r="S20" s="3">
         <v>700</v>
       </c>
       <c r="T20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>300</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1551,68 +1585,71 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-14600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,40 +1659,43 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1667,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1693,68 +1733,71 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1807,11 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,68 +1955,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,68 +2029,71 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2103,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,25 +2399,28 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2359,40 +2429,40 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-700</v>
       </c>
       <c r="S32" s="3">
         <v>-700</v>
       </c>
       <c r="T32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>-300</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2403,68 +2473,71 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2547,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,68 +2621,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,73 +2695,76 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2774,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,62 +2832,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E41" s="3">
         <v>184100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>154200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>180900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>226100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>103200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>127600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2904,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,16 +2978,19 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>50500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -2909,41 +3002,41 @@
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>19300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>6200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2959,8 +3052,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,62 +3126,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,62 +3200,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E46" s="3">
         <v>247700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>219100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>105600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>166800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>193700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>219500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>237100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>146000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,26 +3274,29 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E47" s="3">
         <v>11500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3207,8 +3312,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3243,62 +3348,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3422,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3329,13 +3440,13 @@
         <v>2000</v>
       </c>
       <c r="G49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>1400</v>
@@ -3356,7 +3467,7 @@
         <v>1400</v>
       </c>
       <c r="P49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Q49" s="3">
         <v>1500</v>
@@ -3367,8 +3478,8 @@
       <c r="S49" s="3">
         <v>1500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>1500</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,62 +3644,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,62 +3792,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271700</v>
+      </c>
+      <c r="E54" s="3">
         <v>297200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>181400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>227200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>230100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>262300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>150200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>184200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>214200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>235200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>260300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>166800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>160600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,62 +3924,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3996,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,15 +4013,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3903,18 +4037,18 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>52400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4058,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -3936,62 +4070,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E59" s="3">
         <v>53100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>63400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,62 +4144,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E60" s="3">
         <v>53900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,22 +4218,25 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E61" s="3">
         <v>22100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4149,62 +4292,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E62" s="3">
         <v>118100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>93300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>139700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>62900</v>
       </c>
       <c r="K62" s="3">
         <v>62900</v>
       </c>
       <c r="L62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="M62" s="3">
         <v>64300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>84600</v>
       </c>
       <c r="R62" s="3">
         <v>84600</v>
       </c>
       <c r="S62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="T62" s="3">
         <v>85900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,62 +4588,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E66" s="3">
         <v>194100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>125800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>129600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>203500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>96900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>97900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>156000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>107100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,62 +4986,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-399800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-375900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-344800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-316700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-294400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-283100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-304800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-286100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-262600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-236600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-203900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-177100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-156200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-135400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-116000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-85200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,62 +5282,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E76" s="3">
         <v>103000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>138300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>155800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>174000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,73 +5430,76 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5317,68 +5509,71 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5388,8 +5583,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5424,19 +5623,19 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2200</v>
       </c>
       <c r="J83" s="3">
         <v>2200</v>
@@ -5451,31 +5650,31 @@
         <v>2200</v>
       </c>
       <c r="N83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>500</v>
       </c>
       <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>500</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,68 +6055,71 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-14500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5912,8 +6129,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,68 +6159,69 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
         <v>-800</v>
       </c>
       <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1100</v>
       </c>
       <c r="J91" s="3">
         <v>-1100</v>
       </c>
       <c r="K91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,68 +6379,71 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
         <v>-800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="G94" s="3">
         <v>-1500</v>
       </c>
       <c r="H94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1100</v>
       </c>
       <c r="J94" s="3">
         <v>-1100</v>
       </c>
       <c r="K94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6223,8 +6453,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,67 +6777,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>92900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>134300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>38300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>88000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6605,8 +6851,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,68 +6925,71 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E102" s="3">
         <v>67900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>103700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>109600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>77600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6745,6 +6997,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,99 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,71 +767,74 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>7400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>68800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
@@ -841,8 +844,11 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,71 +1029,72 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7800</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,13 +1181,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>11400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1179,12 +1198,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-6000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1197,8 +1216,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1209,17 +1228,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1258,11 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,61 +1270,61 @@
         <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1800</v>
       </c>
       <c r="K15" s="3">
         <v>1800</v>
       </c>
       <c r="L15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="M15" s="3">
         <v>1900</v>
       </c>
       <c r="N15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
-        <v>400</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>400</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1313,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,71 +1363,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E17" s="3">
         <v>30300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10800</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,71 +1438,74 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-21900</v>
       </c>
       <c r="P18" s="3">
         <v>-21900</v>
       </c>
       <c r="Q18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="R18" s="3">
         <v>-23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,28 +1546,29 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>2600</v>
-      </c>
       <c r="H20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1544,40 +1577,40 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>700</v>
       </c>
       <c r="T20" s="3">
         <v>700</v>
       </c>
       <c r="U20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>300</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1588,71 +1621,74 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-14600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,43 +1698,46 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1710,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1736,71 +1775,74 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1852,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1884,8 +1929,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,71 +2006,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,71 +2083,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,28 +2468,31 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2432,40 +2501,40 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-700</v>
       </c>
       <c r="T32" s="3">
         <v>-700</v>
       </c>
       <c r="U32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>-300</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2476,71 +2545,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,71 +2699,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,76 +2776,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,65 +2918,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E41" s="3">
         <v>212100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>184100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>116200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>193500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>89800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>180900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>226100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>103200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>127600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,8 +3070,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2990,10 +3082,10 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>50500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -3005,41 +3097,41 @@
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>6200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3147,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,65 +3224,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,65 +3301,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E46" s="3">
         <v>225400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>247700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>134100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>219100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>105600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>122600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>137400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>166800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>219500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>237100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>137000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>146000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,29 +3378,32 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
         <v>9800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3419,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3351,65 +3455,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E48" s="3">
         <v>25100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,13 +3532,16 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
@@ -3443,13 +3553,13 @@
         <v>2000</v>
       </c>
       <c r="H49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1400</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
@@ -3470,7 +3580,7 @@
         <v>1400</v>
       </c>
       <c r="Q49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="R49" s="3">
         <v>1500</v>
@@ -3481,8 +3591,8 @@
       <c r="T49" s="3">
         <v>1500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>1500</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3499,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,65 +3763,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,65 +3917,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E54" s="3">
         <v>271700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>297200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>181400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>211500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>227200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>230100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>262300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>184200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>214200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>235200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>260300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>271900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>166800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>138600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>160600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,65 +4054,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4016,15 +4149,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,18 +4173,18 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>52400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4061,8 +4194,8 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4073,65 +4206,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E59" s="3">
         <v>60100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,65 +4283,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E60" s="3">
         <v>61100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4230,16 +4372,16 @@
         <v>22200</v>
       </c>
       <c r="E61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F61" s="3">
         <v>22100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2500</v>
       </c>
       <c r="G61" s="3">
         <v>2500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4295,65 +4437,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E62" s="3">
         <v>104000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>81900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>139700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>62900</v>
       </c>
       <c r="L62" s="3">
         <v>62900</v>
       </c>
       <c r="M62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="N62" s="3">
         <v>64300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>84600</v>
       </c>
       <c r="S62" s="3">
         <v>84600</v>
       </c>
       <c r="T62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="U62" s="3">
         <v>85900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,65 +4745,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E66" s="3">
         <v>187400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>194100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>129600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>203500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>96900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>97900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>156000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>107100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,65 +5159,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-428300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-399800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-375900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-344800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-316700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-294400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-283100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-304800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-286100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-262600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-236600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-203900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-177100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-156200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-135400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-116000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-85200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,65 +5467,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E76" s="3">
         <v>84400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>103000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>91200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>138300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>155800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>174000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,76 +5621,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5512,71 +5703,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5586,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,31 +5811,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2200</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -5653,31 +5851,31 @@
         <v>2200</v>
       </c>
       <c r="O83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>500</v>
       </c>
       <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>500</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5688,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,71 +6271,74 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E89" s="3">
         <v>29200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>68100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-15000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-14500</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6132,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,71 +6379,72 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-800</v>
       </c>
       <c r="F91" s="3">
         <v>-800</v>
       </c>
       <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1100</v>
       </c>
       <c r="K91" s="3">
         <v>-1100</v>
       </c>
       <c r="L91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6234,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,71 +6608,74 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-800</v>
       </c>
       <c r="F94" s="3">
         <v>-800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="H94" s="3">
         <v>-1500</v>
       </c>
       <c r="I94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1100</v>
       </c>
       <c r="K94" s="3">
         <v>-1100</v>
       </c>
       <c r="L94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6456,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,70 +7022,73 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>92900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>134300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>38300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>88000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -6854,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,71 +7176,74 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E102" s="3">
         <v>27900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>109600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>77600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7000,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,74 +771,77 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>68800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,8 +851,11 @@
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,8 +931,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,74 +1043,75 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E12" s="3">
         <v>19400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7800</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,29 +1201,32 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>11400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-6000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1239,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1231,17 +1251,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1261,8 +1281,11 @@
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,61 +1296,61 @@
         <v>1700</v>
       </c>
       <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1800</v>
       </c>
       <c r="L15" s="3">
         <v>1800</v>
       </c>
       <c r="M15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N15" s="3">
         <v>1900</v>
       </c>
       <c r="O15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="3">
-        <v>400</v>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1390,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E17" s="3">
         <v>42500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10800</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,74 +1468,77 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-21900</v>
       </c>
       <c r="Q18" s="3">
         <v>-21900</v>
       </c>
       <c r="R18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="S18" s="3">
         <v>-23900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,31 +1580,32 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1580,40 +1614,40 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>700</v>
       </c>
       <c r="U20" s="3">
         <v>700</v>
       </c>
       <c r="V20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>300</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1624,74 +1658,77 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-14600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,37 +1750,37 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1752,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1778,74 +1818,77 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9000</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,8 +1898,11 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1932,8 +1978,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2058,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2138,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2218,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,31 +2538,34 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2504,40 +2574,40 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-700</v>
       </c>
       <c r="U32" s="3">
         <v>-700</v>
       </c>
       <c r="V32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>-300</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2548,74 +2618,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2698,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2778,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2858,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2943,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,68 +3005,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E41" s="3">
         <v>189600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>212100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>143700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>193500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>89800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>154200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>180900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>206300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>226100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>103200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>127600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,8 +3083,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,8 +3163,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3085,10 +3178,10 @@
         <v>700</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>50500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -3100,41 +3193,41 @@
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>19300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>6200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,8 +3243,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,68 +3323,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3304,68 +3403,71 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E46" s="3">
         <v>199100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>247700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>183000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>219100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>105600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>122600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>137400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>166800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>193700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>219500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>237100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>137000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>146000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,32 +3483,35 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3422,8 +3527,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3458,68 +3563,71 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E48" s="3">
         <v>23200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>39000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,16 +3643,19 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>2000</v>
@@ -3556,13 +3667,13 @@
         <v>2000</v>
       </c>
       <c r="I49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1400</v>
       </c>
       <c r="L49" s="3">
         <v>1400</v>
@@ -3583,7 +3694,7 @@
         <v>1400</v>
       </c>
       <c r="R49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="S49" s="3">
         <v>1500</v>
@@ -3594,8 +3705,8 @@
       <c r="U49" s="3">
         <v>1500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>1500</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,68 +3883,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
       <c r="Q52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,68 +4043,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E54" s="3">
         <v>238200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>297200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>181400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>211500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>227200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>230100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>262300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>168700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>184200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>214200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>235200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>260300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>271900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>166800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>138600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>160600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,68 +4185,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4263,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4152,15 +4286,15 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4176,18 +4310,18 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>52400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,8 +4331,8 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4209,68 +4343,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E59" s="3">
         <v>58400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,68 +4423,71 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E60" s="3">
         <v>59700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,28 +4503,31 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="E61" s="3">
         <v>22200</v>
       </c>
       <c r="F61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G61" s="3">
         <v>22100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>2500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4440,68 +4583,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E62" s="3">
         <v>95800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>104000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>118100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>81900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>93300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>139700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>62900</v>
       </c>
       <c r="M62" s="3">
         <v>62900</v>
       </c>
       <c r="N62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="O62" s="3">
         <v>64300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>84600</v>
       </c>
       <c r="T62" s="3">
         <v>84600</v>
       </c>
       <c r="U62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="V62" s="3">
         <v>85900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,68 +4903,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E66" s="3">
         <v>177700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>187400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>194100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>125800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>129600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>203500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>104900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>156000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>107100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,68 +5333,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-428300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-399800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-375900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-344800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-316700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-294400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-283100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-304800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-286100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-262600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-236600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-203900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-177100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-156200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-135400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-116000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-85200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,68 +5653,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E76" s="3">
         <v>60400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>103000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>115000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>138300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>155800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>174000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +5813,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +5898,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +5978,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,8 +6010,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5821,25 +6020,25 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
       </c>
       <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2200</v>
       </c>
       <c r="L83" s="3">
         <v>2200</v>
@@ -5854,31 +6053,31 @@
         <v>2200</v>
       </c>
       <c r="P83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>500</v>
       </c>
       <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>500</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6088,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,74 +6488,77 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-15000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-14500</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +6568,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,74 +6600,75 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-800</v>
       </c>
       <c r="G91" s="3">
         <v>-800</v>
       </c>
       <c r="H91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1100</v>
       </c>
       <c r="L91" s="3">
         <v>-1100</v>
       </c>
       <c r="M91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6678,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,74 +6838,77 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-800</v>
       </c>
       <c r="G94" s="3">
         <v>-800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="I94" s="3">
         <v>-1500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1100</v>
       </c>
       <c r="L94" s="3">
         <v>-1100</v>
       </c>
       <c r="M94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6688,8 +6918,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,73 +7268,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>92900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>134300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>38300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>88000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -7102,8 +7348,11 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,74 +7428,77 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>109600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>77600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7254,6 +7506,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,107 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,77 +775,80 @@
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,8 +858,11 @@
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,8 +941,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,77 +1057,78 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E12" s="3">
         <v>20500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7800</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,32 +1221,35 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>11400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-6000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,8 +1262,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1254,17 +1274,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
@@ -1284,13 +1304,16 @@
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
@@ -1299,61 +1322,61 @@
         <v>1700</v>
       </c>
       <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1800</v>
       </c>
       <c r="M15" s="3">
         <v>1800</v>
       </c>
       <c r="N15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="O15" s="3">
         <v>1900</v>
       </c>
       <c r="P15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W15" s="3">
-        <v>400</v>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X15" s="3">
         <v>400</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1364,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,77 +1417,78 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E17" s="3">
         <v>33200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10800</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,77 +1498,80 @@
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-21900</v>
       </c>
       <c r="R18" s="3">
         <v>-21900</v>
       </c>
       <c r="S18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="T18" s="3">
         <v>-23900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1581,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,34 +1614,35 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1617,40 +1651,40 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>700</v>
       </c>
       <c r="V20" s="3">
         <v>700</v>
       </c>
       <c r="W20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>300</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1661,77 +1695,80 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-30700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-14600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,49 +1778,52 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1795,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1821,77 +1861,80 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-32700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,8 +1944,11 @@
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1981,8 +2027,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,77 +2110,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,77 +2193,80 @@
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2276,11 @@
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,34 +2608,37 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>1200</v>
-      </c>
       <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2577,40 +2647,40 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-700</v>
       </c>
       <c r="V32" s="3">
         <v>-700</v>
       </c>
       <c r="W32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>-300</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2621,77 +2691,80 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-31800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +2774,11 @@
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,77 +2857,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-31800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,82 +2940,85 @@
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2946,8 +3028,11 @@
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,71 +3092,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E41" s="3">
         <v>158100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>189600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>212100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>193500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>154200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>180900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>206300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>116500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>103200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>127600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,8 +3173,11 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3166,8 +3256,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3181,10 +3274,10 @@
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>50500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -3196,41 +3289,41 @@
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>19300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>6200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3246,8 +3339,11 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3326,71 +3422,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11900</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3406,71 +3505,74 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E46" s="3">
         <v>169000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>199100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>225400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>247700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>183000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>219100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>105600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>122600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>137400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>166800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>193700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>219500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>237100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>137000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>115700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>146000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,35 +3588,38 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3530,8 +3635,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3566,71 +3671,74 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>39600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>39000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,19 +3754,22 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2000</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3670,13 +3781,13 @@
         <v>2000</v>
       </c>
       <c r="J49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1400</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
@@ -3697,7 +3808,7 @@
         <v>1400</v>
       </c>
       <c r="S49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T49" s="3">
         <v>1500</v>
@@ -3708,8 +3819,8 @@
       <c r="V49" s="3">
         <v>1500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
+      <c r="W49" s="3">
+        <v>1500</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
@@ -3726,8 +3837,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,71 +4003,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +4086,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,71 +4169,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E54" s="3">
         <v>204500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>238200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>297200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>181400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>211500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>227200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>230100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>262300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>184200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>214200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>235200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>260300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>271900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>166800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>138600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>160600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4252,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,71 +4316,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,13 +4397,16 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>22300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -4289,15 +4423,15 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4313,18 +4447,18 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <v>52400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4334,8 +4468,8 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4346,71 +4480,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E59" s="3">
         <v>46200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,71 +4563,74 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E60" s="3">
         <v>46900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>61100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,31 +4646,34 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>22300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>22200</v>
       </c>
       <c r="F61" s="3">
         <v>22200</v>
       </c>
       <c r="G61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H61" s="3">
         <v>22100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2500</v>
       </c>
       <c r="I61" s="3">
         <v>2500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4586,71 +4729,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E62" s="3">
         <v>95200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>104000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>118100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>81900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>93300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>139700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>62900</v>
       </c>
       <c r="N62" s="3">
         <v>62900</v>
       </c>
       <c r="O62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="P62" s="3">
         <v>64300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>80800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>84600</v>
       </c>
       <c r="U62" s="3">
         <v>84600</v>
       </c>
       <c r="V62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="W62" s="3">
         <v>85900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,71 +5061,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E66" s="3">
         <v>164300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>177700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>187400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>194100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>125800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>203500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>98600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>96900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>104500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>97900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>156000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>98600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>107100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4986,8 +5144,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,71 +5507,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-465300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-453400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-428300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-399800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-375900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-344800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-316700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-294400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-283100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-304800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-286100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-262600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-236600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-203900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-177100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-156200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-135400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-116000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-85200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,8 +5590,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,71 +5839,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>103000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>85600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>115000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>138300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>155800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>174000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>53600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,8 +5922,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,82 +6005,85 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5901,77 +6093,80 @@
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-31800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,8 +6176,11 @@
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,8 +6209,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6023,25 +6222,25 @@
         <v>2000</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
       </c>
       <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2200</v>
       </c>
       <c r="M83" s="3">
         <v>2200</v>
@@ -6056,31 +6255,31 @@
         <v>2200</v>
       </c>
       <c r="Q83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>600</v>
-      </c>
-      <c r="W83" s="3">
-        <v>500</v>
       </c>
       <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+      <c r="Y83" s="3">
+        <v>500</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -6091,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,77 +6705,80 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-15000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6571,8 +6788,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,77 +6821,78 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-800</v>
       </c>
       <c r="H91" s="3">
         <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="J91" s="3">
         <v>-1500</v>
       </c>
       <c r="K91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1100</v>
       </c>
       <c r="M91" s="3">
         <v>-1100</v>
       </c>
       <c r="N91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6681,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,77 +7068,80 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-800</v>
       </c>
       <c r="H94" s="3">
         <v>-800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
       </c>
       <c r="K94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1100</v>
       </c>
       <c r="M94" s="3">
         <v>-1100</v>
       </c>
       <c r="N94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6921,8 +7151,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,76 +7514,79 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>92900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>134300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>38300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>88000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
+      <c r="Y100" s="3">
+        <v>0</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
@@ -7351,8 +7597,11 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,77 +7680,80 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>103700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>109600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>77600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7509,6 +7761,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>DTIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,111 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,80 +779,83 @@
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E8" s="3">
         <v>19800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +865,11 @@
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,8 +951,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,80 +1071,81 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E12" s="3">
         <v>20300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>16400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7800</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,24 +1255,24 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>11400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1285,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1277,17 +1297,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
@@ -1307,16 +1327,19 @@
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1700</v>
       </c>
       <c r="F15" s="3">
         <v>1700</v>
@@ -1325,61 +1348,61 @@
         <v>1700</v>
       </c>
       <c r="H15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1800</v>
       </c>
       <c r="N15" s="3">
         <v>1800</v>
       </c>
       <c r="O15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="P15" s="3">
         <v>1900</v>
       </c>
       <c r="Q15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="3">
-        <v>400</v>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y15" s="3">
         <v>400</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,80 +1444,81 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E17" s="3">
         <v>31800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>25000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10800</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,80 +1528,83 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-21900</v>
       </c>
       <c r="S18" s="3">
         <v>-21900</v>
       </c>
       <c r="T18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="U18" s="3">
         <v>-23900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1614,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,37 +1648,38 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1654,40 +1688,40 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>700</v>
       </c>
       <c r="W20" s="3">
         <v>700</v>
       </c>
       <c r="X20" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>300</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1698,80 +1732,83 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-30700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-14600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1818,11 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,43 +1830,43 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1838,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1864,80 +1904,83 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-31800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,8 +1990,11 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,80 +2162,83 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,80 +2248,83 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2334,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,31 +2420,34 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,37 +2678,40 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2650,40 +2720,40 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-700</v>
       </c>
       <c r="W32" s="3">
         <v>-700</v>
       </c>
       <c r="X32" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>-300</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2694,80 +2764,83 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-31800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2850,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,80 +2936,83 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-31800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,85 +3022,88 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3113,11 @@
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,74 +3179,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E41" s="3">
         <v>137800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>212100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>184100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>143700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>193500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>154200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>180900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>206300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>226100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>116500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>103200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>127600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3263,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,13 +3349,16 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>15200</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
@@ -3277,10 +3370,10 @@
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>50500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
@@ -3292,41 +3385,41 @@
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>19300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>6200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6500</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3342,8 +3435,11 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3425,74 +3521,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,74 +3607,77 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E46" s="3">
         <v>147900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>169000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>199100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>225400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>247700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>134100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>161800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>183000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>219100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>105600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>122600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>166800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>193700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>219500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>237100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>137000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>115700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>146000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,38 +3693,41 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E47" s="3">
         <v>8700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3638,8 +3743,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3674,74 +3779,77 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
         <v>23000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>39600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>39000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,22 +3865,25 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2000</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
@@ -3784,13 +3895,13 @@
         <v>2000</v>
       </c>
       <c r="K49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1400</v>
       </c>
       <c r="N49" s="3">
         <v>1400</v>
@@ -3811,7 +3922,7 @@
         <v>1400</v>
       </c>
       <c r="T49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="U49" s="3">
         <v>1500</v>
@@ -3822,8 +3933,8 @@
       <c r="W49" s="3">
         <v>1500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
+      <c r="X49" s="3">
+        <v>1500</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,74 +4123,77 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
       </c>
       <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,74 +4295,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E54" s="3">
         <v>181700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>204500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>238200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>297200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>181400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>211500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>227200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>230100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>262300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>168700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>184200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>214200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>235200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>260300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>271900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>166800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>138600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>160600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4381,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,74 +4447,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3900</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,17 +4531,20 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E58" s="3">
         <v>22300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,15 +4560,15 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,18 +4584,18 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
         <v>52400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4471,8 +4605,8 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4483,74 +4617,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E59" s="3">
         <v>33300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,74 +4703,77 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E60" s="3">
         <v>56400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>71400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4649,8 +4789,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4658,25 +4801,25 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>22300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>22200</v>
       </c>
       <c r="G61" s="3">
         <v>22200</v>
       </c>
       <c r="H61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I61" s="3">
         <v>22100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2500</v>
       </c>
       <c r="J61" s="3">
         <v>2500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4732,74 +4875,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E62" s="3">
         <v>91300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>95800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>104000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>118100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>81900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>93300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>139700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>62900</v>
       </c>
       <c r="O62" s="3">
         <v>62900</v>
       </c>
       <c r="P62" s="3">
+        <v>62900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>64300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>80800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>84600</v>
       </c>
       <c r="V62" s="3">
         <v>84600</v>
       </c>
       <c r="W62" s="3">
+        <v>84600</v>
+      </c>
+      <c r="X62" s="3">
         <v>85900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,74 +5219,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E66" s="3">
         <v>147700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>177700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>187400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>194100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>120300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>129600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>203500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>98600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>96900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>104500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>97900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>156000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>98600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>107100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5147,8 +5305,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,74 +5681,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-473300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-465300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-453400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-428300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-399800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-375900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-344800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-316700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-294400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-283100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-304800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-286100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-262600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-236600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-203900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-177100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-156200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-135400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-116000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-85200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5767,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,74 +6025,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E76" s="3">
         <v>34000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>103000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>85600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>138300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>155800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>174000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>53600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +6111,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,85 +6197,88 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6096,80 +6288,83 @@
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-31800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6179,8 +6374,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,13 +6408,14 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
@@ -6225,25 +6424,25 @@
         <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
       </c>
       <c r="I83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2200</v>
       </c>
       <c r="N83" s="3">
         <v>2200</v>
@@ -6258,31 +6457,31 @@
         <v>2200</v>
       </c>
       <c r="R83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>600</v>
-      </c>
-      <c r="X83" s="3">
-        <v>500</v>
       </c>
       <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Z83" s="3">
+        <v>500</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,80 +6922,83 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-25900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-15000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6791,8 +7008,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,80 +7042,81 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-800</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>-1500</v>
       </c>
       <c r="L91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1100</v>
       </c>
       <c r="N91" s="3">
         <v>-1100</v>
       </c>
       <c r="O91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6905,8 +7126,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,80 +7298,83 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-800</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="K94" s="3">
         <v>-1500</v>
       </c>
       <c r="L94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1100</v>
       </c>
       <c r="N94" s="3">
         <v>-1100</v>
       </c>
       <c r="O94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7154,8 +7384,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,79 +7760,82 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>92900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>300</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>134300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>38300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>21300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>88000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
@@ -7600,8 +7846,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,80 +7932,83 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>103700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>109600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>77600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7764,6 +8016,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
